--- a/Code/Results/Cases/Case_1_64/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_64/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001446129281449</v>
+        <v>1.029619739271163</v>
       </c>
       <c r="D2">
-        <v>1.040937858060357</v>
+        <v>1.052000944284393</v>
       </c>
       <c r="E2">
-        <v>1.007672391427909</v>
+        <v>1.02942828623817</v>
       </c>
       <c r="F2">
-        <v>1.036857021603524</v>
+        <v>1.055843262762643</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048487694779795</v>
+        <v>1.039968330270134</v>
       </c>
       <c r="J2">
-        <v>1.023583672736063</v>
+        <v>1.034765509363356</v>
       </c>
       <c r="K2">
-        <v>1.051854869773122</v>
+        <v>1.054750886844637</v>
       </c>
       <c r="L2">
-        <v>1.01902586257029</v>
+        <v>1.032242225918404</v>
       </c>
       <c r="M2">
-        <v>1.047825693162986</v>
+        <v>1.05858260710631</v>
       </c>
       <c r="N2">
-        <v>1.025037278958038</v>
+        <v>1.036234995075915</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005594573758188</v>
+        <v>1.030503058064487</v>
       </c>
       <c r="D3">
-        <v>1.044113188236724</v>
+        <v>1.05269579014621</v>
       </c>
       <c r="E3">
-        <v>1.010960946315695</v>
+        <v>1.03017709022274</v>
       </c>
       <c r="F3">
-        <v>1.040716867661084</v>
+        <v>1.056719449862806</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049682226389125</v>
+        <v>1.040173867365555</v>
       </c>
       <c r="J3">
-        <v>1.025933878299244</v>
+        <v>1.035290275148491</v>
       </c>
       <c r="K3">
-        <v>1.054211109708082</v>
+        <v>1.055258794236249</v>
       </c>
       <c r="L3">
-        <v>1.021455474764846</v>
+        <v>1.032799333008386</v>
       </c>
       <c r="M3">
-        <v>1.050853983851278</v>
+        <v>1.059272155921678</v>
       </c>
       <c r="N3">
-        <v>1.027390822082689</v>
+        <v>1.036760506088657</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00822820619541</v>
+        <v>1.031075254845083</v>
       </c>
       <c r="D4">
-        <v>1.046131612361429</v>
+        <v>1.053145797839562</v>
       </c>
       <c r="E4">
-        <v>1.013054618076682</v>
+        <v>1.030662535828556</v>
       </c>
       <c r="F4">
-        <v>1.043172647055093</v>
+        <v>1.05728730362465</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050432287969135</v>
+        <v>1.040305940727859</v>
       </c>
       <c r="J4">
-        <v>1.027423750096464</v>
+        <v>1.035629830602661</v>
       </c>
       <c r="K4">
-        <v>1.055703411959239</v>
+        <v>1.0555871620948</v>
       </c>
       <c r="L4">
-        <v>1.022997997800847</v>
+        <v>1.033160073788991</v>
       </c>
       <c r="M4">
-        <v>1.052776508993012</v>
+        <v>1.05971860065778</v>
       </c>
       <c r="N4">
-        <v>1.028882809668752</v>
+        <v>1.037100543750519</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009323650109622</v>
+        <v>1.031315955955575</v>
       </c>
       <c r="D5">
-        <v>1.04697172081624</v>
+        <v>1.053335074103428</v>
       </c>
       <c r="E5">
-        <v>1.013926854240361</v>
+        <v>1.030866835635013</v>
       </c>
       <c r="F5">
-        <v>1.044195352626921</v>
+        <v>1.057526243474572</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050742246931655</v>
+        <v>1.040361242745122</v>
       </c>
       <c r="J5">
-        <v>1.028042908129837</v>
+        <v>1.035772577842886</v>
       </c>
       <c r="K5">
-        <v>1.056323222749819</v>
+        <v>1.055725139035968</v>
       </c>
       <c r="L5">
-        <v>1.023639590698816</v>
+        <v>1.033311789087911</v>
       </c>
       <c r="M5">
-        <v>1.053576128142501</v>
+        <v>1.059906346821994</v>
       </c>
       <c r="N5">
-        <v>1.029502846977551</v>
+        <v>1.037243493708198</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009506903094634</v>
+        <v>1.031356379463736</v>
       </c>
       <c r="D6">
-        <v>1.047112290640635</v>
+        <v>1.053366859824999</v>
       </c>
       <c r="E6">
-        <v>1.014072847918918</v>
+        <v>1.030901151235722</v>
       </c>
       <c r="F6">
-        <v>1.044366508905109</v>
+        <v>1.057566375029862</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050793978810418</v>
+        <v>1.040370515181153</v>
       </c>
       <c r="J6">
-        <v>1.028146452025866</v>
+        <v>1.035796545589973</v>
       </c>
       <c r="K6">
-        <v>1.056426854158893</v>
+        <v>1.055748301891553</v>
       </c>
       <c r="L6">
-        <v>1.023746919013543</v>
+        <v>1.033337266229505</v>
       </c>
       <c r="M6">
-        <v>1.053709889669508</v>
+        <v>1.05993787374842</v>
       </c>
       <c r="N6">
-        <v>1.029606537917789</v>
+        <v>1.037267495492235</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008242889164968</v>
+        <v>1.031078470519017</v>
       </c>
       <c r="D7">
-        <v>1.046142870777629</v>
+        <v>1.053148326594936</v>
       </c>
       <c r="E7">
-        <v>1.013066303821545</v>
+        <v>1.030665264836152</v>
       </c>
       <c r="F7">
-        <v>1.043186350234943</v>
+        <v>1.057290495511549</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050436450600825</v>
+        <v>1.040306680547804</v>
       </c>
       <c r="J7">
-        <v>1.027432051278341</v>
+        <v>1.035631738007044</v>
       </c>
       <c r="K7">
-        <v>1.055711723333589</v>
+        <v>1.055589006021889</v>
       </c>
       <c r="L7">
-        <v>1.023006597583277</v>
+        <v>1.033162100782515</v>
       </c>
       <c r="M7">
-        <v>1.0527872270612</v>
+        <v>1.0597211090943</v>
       </c>
       <c r="N7">
-        <v>1.028891122639259</v>
+        <v>1.037102453863634</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002858857482542</v>
+        <v>1.029918129641046</v>
       </c>
       <c r="D8">
-        <v>1.042018621894089</v>
+        <v>1.052235687650947</v>
       </c>
       <c r="E8">
-        <v>1.008791020936363</v>
+        <v>1.029681156716595</v>
       </c>
       <c r="F8">
-        <v>1.038170315816733</v>
+        <v>1.056139186398724</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048896198081596</v>
+        <v>1.04003798317072</v>
       </c>
       <c r="J8">
-        <v>1.024384454143363</v>
+        <v>1.034942856378786</v>
       </c>
       <c r="K8">
-        <v>1.052657985760179</v>
+        <v>1.054922594142109</v>
       </c>
       <c r="L8">
-        <v>1.019853214557948</v>
+        <v>1.032430449278663</v>
       </c>
       <c r="M8">
-        <v>1.048856925112698</v>
+        <v>1.058815588460869</v>
       </c>
       <c r="N8">
-        <v>1.025839197566786</v>
+        <v>1.036412593944449</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9929643782850136</v>
+        <v>1.027878349007965</v>
       </c>
       <c r="D9">
-        <v>1.034462612060471</v>
+        <v>1.050630611741759</v>
       </c>
       <c r="E9">
-        <v>1.000983167403872</v>
+        <v>1.02795414535692</v>
       </c>
       <c r="F9">
-        <v>1.028997030060518</v>
+        <v>1.054117423217909</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0460016072945</v>
+        <v>1.039557466201513</v>
       </c>
       <c r="J9">
-        <v>1.018768052403052</v>
+        <v>1.033728985214864</v>
       </c>
       <c r="K9">
-        <v>1.04702025081611</v>
+        <v>1.053746189778571</v>
       </c>
       <c r="L9">
-        <v>1.01406031351715</v>
+        <v>1.031143195088752</v>
       </c>
       <c r="M9">
-        <v>1.041636538662366</v>
+        <v>1.05722201063851</v>
       </c>
       <c r="N9">
-        <v>1.020214819891794</v>
+        <v>1.035196998944241</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9860663503266475</v>
+        <v>1.026521861780811</v>
       </c>
       <c r="D10">
-        <v>1.029214927983289</v>
+        <v>1.049562757565078</v>
       </c>
       <c r="E10">
-        <v>0.9955758563616879</v>
+        <v>1.026807683348021</v>
       </c>
       <c r="F10">
-        <v>1.022635687040369</v>
+        <v>1.052774390813806</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04394280713521</v>
+        <v>1.039232430503465</v>
       </c>
       <c r="J10">
-        <v>1.014843911441169</v>
+        <v>1.032919822660341</v>
       </c>
       <c r="K10">
-        <v>1.043075999410234</v>
+        <v>1.052960587737862</v>
       </c>
       <c r="L10">
-        <v>1.010025452187689</v>
+        <v>1.030286449722943</v>
       </c>
       <c r="M10">
-        <v>1.036607930453937</v>
+        <v>1.056161107920138</v>
       </c>
       <c r="N10">
-        <v>1.016285106199639</v>
+        <v>1.034386687286078</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9830011468908674</v>
+        <v>1.025935303004988</v>
       </c>
       <c r="D11">
-        <v>1.026888838537363</v>
+        <v>1.049100908049409</v>
       </c>
       <c r="E11">
-        <v>0.9931822776421554</v>
+        <v>1.026312430204611</v>
       </c>
       <c r="F11">
-        <v>1.019817842559009</v>
+        <v>1.052194006845945</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043018855304676</v>
+        <v>1.03909058237148</v>
       </c>
       <c r="J11">
-        <v>1.013098604873441</v>
+        <v>1.032569480577498</v>
       </c>
       <c r="K11">
-        <v>1.041320881901291</v>
+        <v>1.052620114277299</v>
       </c>
       <c r="L11">
-        <v>1.008233921795093</v>
+        <v>1.029915822684492</v>
       </c>
       <c r="M11">
-        <v>1.034375456810925</v>
+        <v>1.055702096733367</v>
       </c>
       <c r="N11">
-        <v>1.014537321096395</v>
+        <v>1.034035847677293</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9818502140373653</v>
+        <v>1.025717551843221</v>
       </c>
       <c r="D12">
-        <v>1.026016387635146</v>
+        <v>1.048929439250464</v>
       </c>
       <c r="E12">
-        <v>0.9922849723756226</v>
+        <v>1.026128648931125</v>
       </c>
       <c r="F12">
-        <v>1.018761198133297</v>
+        <v>1.051978602224546</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04267060978666</v>
+        <v>1.039037728238529</v>
       </c>
       <c r="J12">
-        <v>1.012443075541996</v>
+        <v>1.032439353656103</v>
       </c>
       <c r="K12">
-        <v>1.040661570257855</v>
+        <v>1.052493603168157</v>
       </c>
       <c r="L12">
-        <v>1.007561487953389</v>
+        <v>1.029778209020786</v>
       </c>
       <c r="M12">
-        <v>1.033537578760554</v>
+        <v>1.05553165621906</v>
       </c>
       <c r="N12">
-        <v>1.01388086083811</v>
+        <v>1.033905535960744</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9820976635563256</v>
+        <v>1.025764254624596</v>
       </c>
       <c r="D13">
-        <v>1.026203919048683</v>
+        <v>1.048966216119988</v>
       </c>
       <c r="E13">
-        <v>0.9924778259663092</v>
+        <v>1.026168062566148</v>
       </c>
       <c r="F13">
-        <v>1.018988310791402</v>
+        <v>1.052024799260671</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042745540928129</v>
+        <v>1.039049073104293</v>
       </c>
       <c r="J13">
-        <v>1.012584021918939</v>
+        <v>1.032467266045252</v>
       </c>
       <c r="K13">
-        <v>1.040803333731252</v>
+        <v>1.052520742204665</v>
       </c>
       <c r="L13">
-        <v>1.007706048292927</v>
+        <v>1.029807725168017</v>
       </c>
       <c r="M13">
-        <v>1.03371770346487</v>
+        <v>1.055568213697672</v>
       </c>
       <c r="N13">
-        <v>1.014022007375074</v>
+        <v>1.033933487988687</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9829062666590473</v>
+        <v>1.025917301111582</v>
       </c>
       <c r="D14">
-        <v>1.026816895718794</v>
+        <v>1.049086732688116</v>
       </c>
       <c r="E14">
-        <v>0.9931082761725278</v>
+        <v>1.02629723515074</v>
       </c>
       <c r="F14">
-        <v>1.01973070614508</v>
+        <v>1.052176197835186</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042990173228221</v>
+        <v>1.039086216803002</v>
       </c>
       <c r="J14">
-        <v>1.01304456829406</v>
+        <v>1.032558724122248</v>
       </c>
       <c r="K14">
-        <v>1.041266535323134</v>
+        <v>1.05260965772147</v>
       </c>
       <c r="L14">
-        <v>1.008178482434275</v>
+        <v>1.029904446393105</v>
       </c>
       <c r="M14">
-        <v>1.034306375959877</v>
+        <v>1.055688006901893</v>
       </c>
       <c r="N14">
-        <v>1.014483207778874</v>
+        <v>1.034025075946643</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9834028142273443</v>
+        <v>1.026011614426275</v>
       </c>
       <c r="D15">
-        <v>1.027193441867728</v>
+        <v>1.049160997931999</v>
       </c>
       <c r="E15">
-        <v>0.9934956157571261</v>
+        <v>1.026376846252097</v>
       </c>
       <c r="F15">
-        <v>1.020186785027768</v>
+        <v>1.052269502848033</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043140225026547</v>
+        <v>1.039109080361946</v>
       </c>
       <c r="J15">
-        <v>1.013327356371919</v>
+        <v>1.032615075254515</v>
       </c>
       <c r="K15">
-        <v>1.041550941938232</v>
+        <v>1.05266443570198</v>
       </c>
       <c r="L15">
-        <v>1.00846863029809</v>
+        <v>1.029964046687479</v>
       </c>
       <c r="M15">
-        <v>1.034667920559217</v>
+        <v>1.055761823006545</v>
       </c>
       <c r="N15">
-        <v>1.01476639744824</v>
+        <v>1.034081507103981</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9862680762968025</v>
+        <v>1.02656080691522</v>
       </c>
       <c r="D16">
-        <v>1.029368139488793</v>
+        <v>1.049593420492272</v>
       </c>
       <c r="E16">
-        <v>0.9957335786875726</v>
+        <v>1.026840576511092</v>
       </c>
       <c r="F16">
-        <v>1.02282132532819</v>
+        <v>1.052812933541268</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044003428294011</v>
+        <v>1.039241821261923</v>
       </c>
       <c r="J16">
-        <v>1.01495874342403</v>
+        <v>1.032943074452026</v>
       </c>
       <c r="K16">
-        <v>1.043191461575018</v>
+        <v>1.052983177580469</v>
       </c>
       <c r="L16">
-        <v>1.010143388676699</v>
+        <v>1.030311054484706</v>
       </c>
       <c r="M16">
-        <v>1.036754901655598</v>
+        <v>1.056191578842068</v>
       </c>
       <c r="N16">
-        <v>1.016400101257087</v>
+        <v>1.034409972097975</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9880439916980027</v>
+        <v>1.026905518414845</v>
       </c>
       <c r="D17">
-        <v>1.030717620708324</v>
+        <v>1.049864813144667</v>
       </c>
       <c r="E17">
-        <v>0.9971231601043928</v>
+        <v>1.027131777316082</v>
       </c>
       <c r="F17">
-        <v>1.02445663164533</v>
+        <v>1.053154124580674</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044536081407187</v>
+        <v>1.039324790613781</v>
       </c>
       <c r="J17">
-        <v>1.0159695037216</v>
+        <v>1.0331488286796</v>
       </c>
       <c r="K17">
-        <v>1.044207673924065</v>
+        <v>1.053183035883356</v>
       </c>
       <c r="L17">
-        <v>1.011181819470816</v>
+        <v>1.03052881771183</v>
       </c>
       <c r="M17">
-        <v>1.038049018298622</v>
+        <v>1.056461252617166</v>
       </c>
       <c r="N17">
-        <v>1.017412296950216</v>
+        <v>1.034616018520152</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9890723406728804</v>
+        <v>1.027106660782535</v>
       </c>
       <c r="D18">
-        <v>1.031499583570791</v>
+        <v>1.050023163714142</v>
       </c>
       <c r="E18">
-        <v>0.9979286722395783</v>
+        <v>1.027301742835197</v>
       </c>
       <c r="F18">
-        <v>1.025404398801579</v>
+        <v>1.053353247139682</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044843647289372</v>
+        <v>1.039373078520179</v>
       </c>
       <c r="J18">
-        <v>1.016554634713464</v>
+        <v>1.033268844520641</v>
       </c>
       <c r="K18">
-        <v>1.044795876588865</v>
+        <v>1.053299580563385</v>
       </c>
       <c r="L18">
-        <v>1.011783255540984</v>
+        <v>1.03065586894325</v>
       </c>
       <c r="M18">
-        <v>1.038798568718133</v>
+        <v>1.056618584041577</v>
       </c>
       <c r="N18">
-        <v>1.017998258895203</v>
+        <v>1.034736204797454</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9894217248751704</v>
+        <v>1.027175258318974</v>
       </c>
       <c r="D19">
-        <v>1.031765346742059</v>
+        <v>1.05007716590252</v>
       </c>
       <c r="E19">
-        <v>0.9982024930521527</v>
+        <v>1.027359715804398</v>
       </c>
       <c r="F19">
-        <v>1.025726545131358</v>
+        <v>1.053421161658917</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044947994788607</v>
+        <v>1.039389525327621</v>
       </c>
       <c r="J19">
-        <v>1.016753407363421</v>
+        <v>1.033309767275491</v>
       </c>
       <c r="K19">
-        <v>1.044995677412223</v>
+        <v>1.053339314278748</v>
       </c>
       <c r="L19">
-        <v>1.011987615649429</v>
+        <v>1.030699195795785</v>
       </c>
       <c r="M19">
-        <v>1.039053260239609</v>
+        <v>1.056672235926303</v>
       </c>
       <c r="N19">
-        <v>1.018197313825123</v>
+        <v>1.034777185667309</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9878542341434964</v>
+        <v>1.026868526057673</v>
       </c>
       <c r="D20">
-        <v>1.03057337105222</v>
+        <v>1.049835689907891</v>
       </c>
       <c r="E20">
-        <v>0.9969745917922126</v>
+        <v>1.027100522523927</v>
       </c>
       <c r="F20">
-        <v>1.024281810774511</v>
+        <v>1.053117506454587</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044479256848248</v>
+        <v>1.039315899820496</v>
       </c>
       <c r="J20">
-        <v>1.015861518968024</v>
+        <v>1.033126752892092</v>
       </c>
       <c r="K20">
-        <v>1.044099115239482</v>
+        <v>1.053161595998378</v>
       </c>
       <c r="L20">
-        <v>1.011070848784946</v>
+        <v>1.030505450291522</v>
       </c>
       <c r="M20">
-        <v>1.037910721159985</v>
+        <v>1.056432315513263</v>
       </c>
       <c r="N20">
-        <v>1.017304158845903</v>
+        <v>1.034593911382494</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9826685000763452</v>
+        <v>1.025872229332926</v>
       </c>
       <c r="D21">
-        <v>1.026636625234983</v>
+        <v>1.049051241266009</v>
       </c>
       <c r="E21">
-        <v>0.9929228545162924</v>
+        <v>1.026259192122901</v>
       </c>
       <c r="F21">
-        <v>1.019512368272675</v>
+        <v>1.052131609859901</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04291827589289</v>
+        <v>1.039075283470532</v>
       </c>
       <c r="J21">
-        <v>1.012909151482248</v>
+        <v>1.03253179183098</v>
       </c>
       <c r="K21">
-        <v>1.04113034019363</v>
+        <v>1.052583475524598</v>
       </c>
       <c r="L21">
-        <v>1.008039557595988</v>
+        <v>1.029875962910172</v>
       </c>
       <c r="M21">
-        <v>1.034133268088654</v>
+        <v>1.055652729211682</v>
       </c>
       <c r="N21">
-        <v>1.014347598659656</v>
+        <v>1.033998105408431</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9793360637217138</v>
+        <v>1.025246529665518</v>
       </c>
       <c r="D22">
-        <v>1.024112428350666</v>
+        <v>1.048558506486701</v>
       </c>
       <c r="E22">
-        <v>0.9903275797864053</v>
+        <v>1.025731243788805</v>
       </c>
       <c r="F22">
-        <v>1.016455692782756</v>
+        <v>1.051512755736616</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041907523629077</v>
+        <v>1.038923041681158</v>
       </c>
       <c r="J22">
-        <v>1.011010794467288</v>
+        <v>1.032157749890609</v>
       </c>
       <c r="K22">
-        <v>1.039220883720509</v>
+        <v>1.052219733722823</v>
       </c>
       <c r="L22">
-        <v>1.006093115639731</v>
+        <v>1.029480490630627</v>
       </c>
       <c r="M22">
-        <v>1.031708058996675</v>
+        <v>1.055162901069379</v>
       </c>
       <c r="N22">
-        <v>1.012446545759991</v>
+        <v>1.033623532285602</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9811096878916956</v>
+        <v>1.025578157002016</v>
       </c>
       <c r="D23">
-        <v>1.02545532193185</v>
+        <v>1.048819668495095</v>
       </c>
       <c r="E23">
-        <v>0.9917080482343135</v>
+        <v>1.026011021057933</v>
       </c>
       <c r="F23">
-        <v>1.018081745320964</v>
+        <v>1.051840724881737</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042446179257158</v>
+        <v>1.039003838397019</v>
       </c>
       <c r="J23">
-        <v>1.012021249028342</v>
+        <v>1.032356033031137</v>
       </c>
       <c r="K23">
-        <v>1.040237286667788</v>
+        <v>1.052412583806625</v>
       </c>
       <c r="L23">
-        <v>1.007128912740698</v>
+        <v>1.02969010803748</v>
       </c>
       <c r="M23">
-        <v>1.032998592501489</v>
+        <v>1.055422536547739</v>
       </c>
       <c r="N23">
-        <v>1.013458435282422</v>
+        <v>1.033822097010933</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9879400005854883</v>
+        <v>1.026885241070747</v>
       </c>
       <c r="D24">
-        <v>1.030638567204099</v>
+        <v>1.049848849285081</v>
       </c>
       <c r="E24">
-        <v>0.9970417388636755</v>
+        <v>1.027114644870156</v>
       </c>
       <c r="F24">
-        <v>1.024360823555392</v>
+        <v>1.053134052264962</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044504943055097</v>
+        <v>1.039319917517084</v>
       </c>
       <c r="J24">
-        <v>1.015910326292383</v>
+        <v>1.033136727981451</v>
       </c>
       <c r="K24">
-        <v>1.044148182235703</v>
+        <v>1.053171283850183</v>
       </c>
       <c r="L24">
-        <v>1.011121004813176</v>
+        <v>1.03051600891917</v>
       </c>
       <c r="M24">
-        <v>1.037973227992797</v>
+        <v>1.056445390836133</v>
       </c>
       <c r="N24">
-        <v>1.017353035482261</v>
+        <v>1.034603900637624</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9955733633077454</v>
+        <v>1.028405093692672</v>
       </c>
       <c r="D25">
-        <v>1.036451844111859</v>
+        <v>1.051045182893244</v>
       </c>
       <c r="E25">
-        <v>1.003035945001203</v>
+        <v>1.028399766321321</v>
       </c>
       <c r="F25">
-        <v>1.031410261662103</v>
+        <v>1.054639257747924</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046772083719213</v>
+        <v>1.039682521181665</v>
       </c>
       <c r="J25">
-        <v>1.020250625336396</v>
+        <v>1.034042789971398</v>
       </c>
       <c r="K25">
-        <v>1.048509469256329</v>
+        <v>1.054050559253962</v>
       </c>
       <c r="L25">
-        <v>1.015587313941027</v>
+        <v>1.031475735506696</v>
       </c>
       <c r="M25">
-        <v>1.043539784452649</v>
+        <v>1.057633734285827</v>
       </c>
       <c r="N25">
-        <v>1.021699498248757</v>
+        <v>1.035511249339523</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_64/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_64/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029619739271163</v>
+        <v>1.001446129281448</v>
       </c>
       <c r="D2">
-        <v>1.052000944284393</v>
+        <v>1.040937858060356</v>
       </c>
       <c r="E2">
-        <v>1.02942828623817</v>
+        <v>1.007672391427908</v>
       </c>
       <c r="F2">
-        <v>1.055843262762643</v>
+        <v>1.036857021603523</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039968330270134</v>
+        <v>1.048487694779795</v>
       </c>
       <c r="J2">
-        <v>1.034765509363356</v>
+        <v>1.023583672736062</v>
       </c>
       <c r="K2">
-        <v>1.054750886844637</v>
+        <v>1.051854869773121</v>
       </c>
       <c r="L2">
-        <v>1.032242225918404</v>
+        <v>1.019025862570289</v>
       </c>
       <c r="M2">
-        <v>1.05858260710631</v>
+        <v>1.047825693162985</v>
       </c>
       <c r="N2">
-        <v>1.036234995075915</v>
+        <v>1.025037278958036</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030503058064487</v>
+        <v>1.005594573758188</v>
       </c>
       <c r="D3">
-        <v>1.05269579014621</v>
+        <v>1.044113188236724</v>
       </c>
       <c r="E3">
-        <v>1.03017709022274</v>
+        <v>1.010960946315695</v>
       </c>
       <c r="F3">
-        <v>1.056719449862806</v>
+        <v>1.040716867661084</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040173867365555</v>
+        <v>1.049682226389124</v>
       </c>
       <c r="J3">
-        <v>1.035290275148491</v>
+        <v>1.025933878299243</v>
       </c>
       <c r="K3">
-        <v>1.055258794236249</v>
+        <v>1.054211109708082</v>
       </c>
       <c r="L3">
-        <v>1.032799333008386</v>
+        <v>1.021455474764846</v>
       </c>
       <c r="M3">
-        <v>1.059272155921678</v>
+        <v>1.050853983851278</v>
       </c>
       <c r="N3">
-        <v>1.036760506088657</v>
+        <v>1.027390822082689</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031075254845083</v>
+        <v>1.00822820619541</v>
       </c>
       <c r="D4">
-        <v>1.053145797839562</v>
+        <v>1.046131612361429</v>
       </c>
       <c r="E4">
-        <v>1.030662535828556</v>
+        <v>1.013054618076682</v>
       </c>
       <c r="F4">
-        <v>1.05728730362465</v>
+        <v>1.043172647055093</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040305940727859</v>
+        <v>1.050432287969135</v>
       </c>
       <c r="J4">
-        <v>1.035629830602661</v>
+        <v>1.027423750096464</v>
       </c>
       <c r="K4">
-        <v>1.0555871620948</v>
+        <v>1.055703411959239</v>
       </c>
       <c r="L4">
-        <v>1.033160073788991</v>
+        <v>1.022997997800847</v>
       </c>
       <c r="M4">
-        <v>1.05971860065778</v>
+        <v>1.052776508993012</v>
       </c>
       <c r="N4">
-        <v>1.037100543750519</v>
+        <v>1.028882809668752</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031315955955575</v>
+        <v>1.009323650109622</v>
       </c>
       <c r="D5">
-        <v>1.053335074103428</v>
+        <v>1.04697172081624</v>
       </c>
       <c r="E5">
-        <v>1.030866835635013</v>
+        <v>1.01392685424036</v>
       </c>
       <c r="F5">
-        <v>1.057526243474572</v>
+        <v>1.044195352626921</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040361242745122</v>
+        <v>1.050742246931655</v>
       </c>
       <c r="J5">
-        <v>1.035772577842886</v>
+        <v>1.028042908129836</v>
       </c>
       <c r="K5">
-        <v>1.055725139035968</v>
+        <v>1.056323222749819</v>
       </c>
       <c r="L5">
-        <v>1.033311789087911</v>
+        <v>1.023639590698815</v>
       </c>
       <c r="M5">
-        <v>1.059906346821994</v>
+        <v>1.053576128142501</v>
       </c>
       <c r="N5">
-        <v>1.037243493708198</v>
+        <v>1.02950284697755</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031356379463736</v>
+        <v>1.009506903094633</v>
       </c>
       <c r="D6">
-        <v>1.053366859824999</v>
+        <v>1.047112290640634</v>
       </c>
       <c r="E6">
-        <v>1.030901151235722</v>
+        <v>1.014072847918917</v>
       </c>
       <c r="F6">
-        <v>1.057566375029862</v>
+        <v>1.044366508905108</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040370515181153</v>
+        <v>1.050793978810417</v>
       </c>
       <c r="J6">
-        <v>1.035796545589973</v>
+        <v>1.028146452025865</v>
       </c>
       <c r="K6">
-        <v>1.055748301891553</v>
+        <v>1.056426854158893</v>
       </c>
       <c r="L6">
-        <v>1.033337266229505</v>
+        <v>1.023746919013542</v>
       </c>
       <c r="M6">
-        <v>1.05993787374842</v>
+        <v>1.053709889669508</v>
       </c>
       <c r="N6">
-        <v>1.037267495492235</v>
+        <v>1.029606537917788</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031078470519017</v>
+        <v>1.008242889164968</v>
       </c>
       <c r="D7">
-        <v>1.053148326594936</v>
+        <v>1.046142870777629</v>
       </c>
       <c r="E7">
-        <v>1.030665264836152</v>
+        <v>1.013066303821545</v>
       </c>
       <c r="F7">
-        <v>1.057290495511549</v>
+        <v>1.043186350234944</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040306680547804</v>
+        <v>1.050436450600825</v>
       </c>
       <c r="J7">
-        <v>1.035631738007044</v>
+        <v>1.027432051278341</v>
       </c>
       <c r="K7">
-        <v>1.055589006021889</v>
+        <v>1.05571172333359</v>
       </c>
       <c r="L7">
-        <v>1.033162100782515</v>
+        <v>1.023006597583277</v>
       </c>
       <c r="M7">
-        <v>1.0597211090943</v>
+        <v>1.052787227061201</v>
       </c>
       <c r="N7">
-        <v>1.037102453863634</v>
+        <v>1.02889112263926</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029918129641046</v>
+        <v>1.002858857482541</v>
       </c>
       <c r="D8">
-        <v>1.052235687650947</v>
+        <v>1.04201862189409</v>
       </c>
       <c r="E8">
-        <v>1.029681156716595</v>
+        <v>1.008791020936362</v>
       </c>
       <c r="F8">
-        <v>1.056139186398724</v>
+        <v>1.038170315816733</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04003798317072</v>
+        <v>1.048896198081596</v>
       </c>
       <c r="J8">
-        <v>1.034942856378786</v>
+        <v>1.024384454143363</v>
       </c>
       <c r="K8">
-        <v>1.054922594142109</v>
+        <v>1.05265798576018</v>
       </c>
       <c r="L8">
-        <v>1.032430449278663</v>
+        <v>1.019853214557947</v>
       </c>
       <c r="M8">
-        <v>1.058815588460869</v>
+        <v>1.048856925112698</v>
       </c>
       <c r="N8">
-        <v>1.036412593944449</v>
+        <v>1.025839197566786</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027878349007965</v>
+        <v>0.9929643782850127</v>
       </c>
       <c r="D9">
-        <v>1.050630611741759</v>
+        <v>1.034462612060471</v>
       </c>
       <c r="E9">
-        <v>1.02795414535692</v>
+        <v>1.000983167403871</v>
       </c>
       <c r="F9">
-        <v>1.054117423217909</v>
+        <v>1.028997030060517</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039557466201513</v>
+        <v>1.0460016072945</v>
       </c>
       <c r="J9">
-        <v>1.033728985214864</v>
+        <v>1.018768052403051</v>
       </c>
       <c r="K9">
-        <v>1.053746189778571</v>
+        <v>1.04702025081611</v>
       </c>
       <c r="L9">
-        <v>1.031143195088752</v>
+        <v>1.014060313517149</v>
       </c>
       <c r="M9">
-        <v>1.05722201063851</v>
+        <v>1.041636538662366</v>
       </c>
       <c r="N9">
-        <v>1.035196998944241</v>
+        <v>1.020214819891793</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026521861780811</v>
+        <v>0.9860663503266466</v>
       </c>
       <c r="D10">
-        <v>1.049562757565078</v>
+        <v>1.029214927983289</v>
       </c>
       <c r="E10">
-        <v>1.026807683348021</v>
+        <v>0.9955758563616869</v>
       </c>
       <c r="F10">
-        <v>1.052774390813806</v>
+        <v>1.022635687040368</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039232430503465</v>
+        <v>1.043942807135209</v>
       </c>
       <c r="J10">
-        <v>1.032919822660341</v>
+        <v>1.014843911441168</v>
       </c>
       <c r="K10">
-        <v>1.052960587737862</v>
+        <v>1.043075999410233</v>
       </c>
       <c r="L10">
-        <v>1.030286449722943</v>
+        <v>1.010025452187688</v>
       </c>
       <c r="M10">
-        <v>1.056161107920138</v>
+        <v>1.036607930453936</v>
       </c>
       <c r="N10">
-        <v>1.034386687286078</v>
+        <v>1.016285106199638</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025935303004988</v>
+        <v>0.9830011468908668</v>
       </c>
       <c r="D11">
-        <v>1.049100908049409</v>
+        <v>1.026888838537363</v>
       </c>
       <c r="E11">
-        <v>1.026312430204611</v>
+        <v>0.9931822776421545</v>
       </c>
       <c r="F11">
-        <v>1.052194006845945</v>
+        <v>1.019817842559009</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03909058237148</v>
+        <v>1.043018855304676</v>
       </c>
       <c r="J11">
-        <v>1.032569480577498</v>
+        <v>1.01309860487344</v>
       </c>
       <c r="K11">
-        <v>1.052620114277299</v>
+        <v>1.041320881901291</v>
       </c>
       <c r="L11">
-        <v>1.029915822684492</v>
+        <v>1.008233921795092</v>
       </c>
       <c r="M11">
-        <v>1.055702096733367</v>
+        <v>1.034375456810925</v>
       </c>
       <c r="N11">
-        <v>1.034035847677293</v>
+        <v>1.014537321096394</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025717551843221</v>
+        <v>0.9818502140373651</v>
       </c>
       <c r="D12">
-        <v>1.048929439250464</v>
+        <v>1.026016387635145</v>
       </c>
       <c r="E12">
-        <v>1.026128648931125</v>
+        <v>0.992284972375622</v>
       </c>
       <c r="F12">
-        <v>1.051978602224546</v>
+        <v>1.018761198133297</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039037728238529</v>
+        <v>1.04267060978666</v>
       </c>
       <c r="J12">
-        <v>1.032439353656103</v>
+        <v>1.012443075541996</v>
       </c>
       <c r="K12">
-        <v>1.052493603168157</v>
+        <v>1.040661570257854</v>
       </c>
       <c r="L12">
-        <v>1.029778209020786</v>
+        <v>1.007561487953389</v>
       </c>
       <c r="M12">
-        <v>1.05553165621906</v>
+        <v>1.033537578760553</v>
       </c>
       <c r="N12">
-        <v>1.033905535960744</v>
+        <v>1.013880860838109</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025764254624596</v>
+        <v>0.9820976635563248</v>
       </c>
       <c r="D13">
-        <v>1.048966216119988</v>
+        <v>1.026203919048682</v>
       </c>
       <c r="E13">
-        <v>1.026168062566148</v>
+        <v>0.9924778259663083</v>
       </c>
       <c r="F13">
-        <v>1.052024799260671</v>
+        <v>1.018988310791401</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039049073104293</v>
+        <v>1.042745540928129</v>
       </c>
       <c r="J13">
-        <v>1.032467266045252</v>
+        <v>1.012584021918938</v>
       </c>
       <c r="K13">
-        <v>1.052520742204665</v>
+        <v>1.040803333731251</v>
       </c>
       <c r="L13">
-        <v>1.029807725168017</v>
+        <v>1.007706048292926</v>
       </c>
       <c r="M13">
-        <v>1.055568213697672</v>
+        <v>1.03371770346487</v>
       </c>
       <c r="N13">
-        <v>1.033933487988687</v>
+        <v>1.014022007375074</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025917301111582</v>
+        <v>0.9829062666590467</v>
       </c>
       <c r="D14">
-        <v>1.049086732688116</v>
+        <v>1.026816895718793</v>
       </c>
       <c r="E14">
-        <v>1.02629723515074</v>
+        <v>0.9931082761725275</v>
       </c>
       <c r="F14">
-        <v>1.052176197835186</v>
+        <v>1.01973070614508</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039086216803002</v>
+        <v>1.042990173228221</v>
       </c>
       <c r="J14">
-        <v>1.032558724122248</v>
+        <v>1.013044568294059</v>
       </c>
       <c r="K14">
-        <v>1.05260965772147</v>
+        <v>1.041266535323134</v>
       </c>
       <c r="L14">
-        <v>1.029904446393105</v>
+        <v>1.008178482434274</v>
       </c>
       <c r="M14">
-        <v>1.055688006901893</v>
+        <v>1.034306375959877</v>
       </c>
       <c r="N14">
-        <v>1.034025075946643</v>
+        <v>1.014483207778873</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026011614426275</v>
+        <v>0.9834028142273439</v>
       </c>
       <c r="D15">
-        <v>1.049160997931999</v>
+        <v>1.027193441867728</v>
       </c>
       <c r="E15">
-        <v>1.026376846252097</v>
+        <v>0.9934956157571255</v>
       </c>
       <c r="F15">
-        <v>1.052269502848033</v>
+        <v>1.020186785027768</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039109080361946</v>
+        <v>1.043140225026547</v>
       </c>
       <c r="J15">
-        <v>1.032615075254515</v>
+        <v>1.013327356371919</v>
       </c>
       <c r="K15">
-        <v>1.05266443570198</v>
+        <v>1.041550941938232</v>
       </c>
       <c r="L15">
-        <v>1.029964046687479</v>
+        <v>1.008468630298089</v>
       </c>
       <c r="M15">
-        <v>1.055761823006545</v>
+        <v>1.034667920559218</v>
       </c>
       <c r="N15">
-        <v>1.034081507103981</v>
+        <v>1.014766397448239</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02656080691522</v>
+        <v>0.9862680762968019</v>
       </c>
       <c r="D16">
-        <v>1.049593420492272</v>
+        <v>1.029368139488793</v>
       </c>
       <c r="E16">
-        <v>1.026840576511092</v>
+        <v>0.9957335786875724</v>
       </c>
       <c r="F16">
-        <v>1.052812933541268</v>
+        <v>1.02282132532819</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039241821261923</v>
+        <v>1.044003428294011</v>
       </c>
       <c r="J16">
-        <v>1.032943074452026</v>
+        <v>1.01495874342403</v>
       </c>
       <c r="K16">
-        <v>1.052983177580469</v>
+        <v>1.043191461575018</v>
       </c>
       <c r="L16">
-        <v>1.030311054484706</v>
+        <v>1.010143388676699</v>
       </c>
       <c r="M16">
-        <v>1.056191578842068</v>
+        <v>1.036754901655598</v>
       </c>
       <c r="N16">
-        <v>1.034409972097975</v>
+        <v>1.016400101257087</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026905518414845</v>
+        <v>0.9880439916980023</v>
       </c>
       <c r="D17">
-        <v>1.049864813144667</v>
+        <v>1.030717620708323</v>
       </c>
       <c r="E17">
-        <v>1.027131777316082</v>
+        <v>0.9971231601043922</v>
       </c>
       <c r="F17">
-        <v>1.053154124580674</v>
+        <v>1.024456631645329</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039324790613781</v>
+        <v>1.044536081407187</v>
       </c>
       <c r="J17">
-        <v>1.0331488286796</v>
+        <v>1.0159695037216</v>
       </c>
       <c r="K17">
-        <v>1.053183035883356</v>
+        <v>1.044207673924064</v>
       </c>
       <c r="L17">
-        <v>1.03052881771183</v>
+        <v>1.011181819470816</v>
       </c>
       <c r="M17">
-        <v>1.056461252617166</v>
+        <v>1.038049018298622</v>
       </c>
       <c r="N17">
-        <v>1.034616018520152</v>
+        <v>1.017412296950215</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027106660782535</v>
+        <v>0.9890723406728797</v>
       </c>
       <c r="D18">
-        <v>1.050023163714142</v>
+        <v>1.03149958357079</v>
       </c>
       <c r="E18">
-        <v>1.027301742835197</v>
+        <v>0.997928672239577</v>
       </c>
       <c r="F18">
-        <v>1.053353247139682</v>
+        <v>1.025404398801578</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039373078520179</v>
+        <v>1.044843647289371</v>
       </c>
       <c r="J18">
-        <v>1.033268844520641</v>
+        <v>1.016554634713463</v>
       </c>
       <c r="K18">
-        <v>1.053299580563385</v>
+        <v>1.044795876588863</v>
       </c>
       <c r="L18">
-        <v>1.03065586894325</v>
+        <v>1.011783255540984</v>
       </c>
       <c r="M18">
-        <v>1.056618584041577</v>
+        <v>1.038798568718132</v>
       </c>
       <c r="N18">
-        <v>1.034736204797454</v>
+        <v>1.017998258895203</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027175258318974</v>
+        <v>0.9894217248751699</v>
       </c>
       <c r="D19">
-        <v>1.05007716590252</v>
+        <v>1.031765346742059</v>
       </c>
       <c r="E19">
-        <v>1.027359715804398</v>
+        <v>0.9982024930521525</v>
       </c>
       <c r="F19">
-        <v>1.053421161658917</v>
+        <v>1.025726545131358</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039389525327621</v>
+        <v>1.044947994788607</v>
       </c>
       <c r="J19">
-        <v>1.033309767275491</v>
+        <v>1.01675340736342</v>
       </c>
       <c r="K19">
-        <v>1.053339314278748</v>
+        <v>1.044995677412222</v>
       </c>
       <c r="L19">
-        <v>1.030699195795785</v>
+        <v>1.011987615649429</v>
       </c>
       <c r="M19">
-        <v>1.056672235926303</v>
+        <v>1.039053260239609</v>
       </c>
       <c r="N19">
-        <v>1.034777185667309</v>
+        <v>1.018197313825122</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026868526057673</v>
+        <v>0.9878542341434952</v>
       </c>
       <c r="D20">
-        <v>1.049835689907891</v>
+        <v>1.03057337105222</v>
       </c>
       <c r="E20">
-        <v>1.027100522523927</v>
+        <v>0.9969745917922113</v>
       </c>
       <c r="F20">
-        <v>1.053117506454587</v>
+        <v>1.024281810774511</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039315899820496</v>
+        <v>1.044479256848248</v>
       </c>
       <c r="J20">
-        <v>1.033126752892092</v>
+        <v>1.015861518968023</v>
       </c>
       <c r="K20">
-        <v>1.053161595998378</v>
+        <v>1.044099115239482</v>
       </c>
       <c r="L20">
-        <v>1.030505450291522</v>
+        <v>1.011070848784945</v>
       </c>
       <c r="M20">
-        <v>1.056432315513263</v>
+        <v>1.037910721159985</v>
       </c>
       <c r="N20">
-        <v>1.034593911382494</v>
+        <v>1.017304158845902</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025872229332926</v>
+        <v>0.9826685000763443</v>
       </c>
       <c r="D21">
-        <v>1.049051241266009</v>
+        <v>1.026636625234983</v>
       </c>
       <c r="E21">
-        <v>1.026259192122901</v>
+        <v>0.9929228545162914</v>
       </c>
       <c r="F21">
-        <v>1.052131609859901</v>
+        <v>1.019512368272674</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039075283470532</v>
+        <v>1.042918275892889</v>
       </c>
       <c r="J21">
-        <v>1.03253179183098</v>
+        <v>1.012909151482247</v>
       </c>
       <c r="K21">
-        <v>1.052583475524598</v>
+        <v>1.04113034019363</v>
       </c>
       <c r="L21">
-        <v>1.029875962910172</v>
+        <v>1.008039557595987</v>
       </c>
       <c r="M21">
-        <v>1.055652729211682</v>
+        <v>1.034133268088654</v>
       </c>
       <c r="N21">
-        <v>1.033998105408431</v>
+        <v>1.014347598659655</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025246529665518</v>
+        <v>0.9793360637217141</v>
       </c>
       <c r="D22">
-        <v>1.048558506486701</v>
+        <v>1.024112428350666</v>
       </c>
       <c r="E22">
-        <v>1.025731243788805</v>
+        <v>0.9903275797864058</v>
       </c>
       <c r="F22">
-        <v>1.051512755736616</v>
+        <v>1.016455692782756</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038923041681158</v>
+        <v>1.041907523629077</v>
       </c>
       <c r="J22">
-        <v>1.032157749890609</v>
+        <v>1.011010794467288</v>
       </c>
       <c r="K22">
-        <v>1.052219733722823</v>
+        <v>1.039220883720509</v>
       </c>
       <c r="L22">
-        <v>1.029480490630627</v>
+        <v>1.006093115639732</v>
       </c>
       <c r="M22">
-        <v>1.055162901069379</v>
+        <v>1.031708058996675</v>
       </c>
       <c r="N22">
-        <v>1.033623532285602</v>
+        <v>1.012446545759991</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025578157002016</v>
+        <v>0.9811096878916956</v>
       </c>
       <c r="D23">
-        <v>1.048819668495095</v>
+        <v>1.025455321931851</v>
       </c>
       <c r="E23">
-        <v>1.026011021057933</v>
+        <v>0.9917080482343132</v>
       </c>
       <c r="F23">
-        <v>1.051840724881737</v>
+        <v>1.018081745320965</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039003838397019</v>
+        <v>1.042446179257158</v>
       </c>
       <c r="J23">
-        <v>1.032356033031137</v>
+        <v>1.012021249028342</v>
       </c>
       <c r="K23">
-        <v>1.052412583806625</v>
+        <v>1.040237286667789</v>
       </c>
       <c r="L23">
-        <v>1.02969010803748</v>
+        <v>1.007128912740698</v>
       </c>
       <c r="M23">
-        <v>1.055422536547739</v>
+        <v>1.03299859250149</v>
       </c>
       <c r="N23">
-        <v>1.033822097010933</v>
+        <v>1.013458435282422</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026885241070747</v>
+        <v>0.9879400005854881</v>
       </c>
       <c r="D24">
-        <v>1.049848849285081</v>
+        <v>1.030638567204099</v>
       </c>
       <c r="E24">
-        <v>1.027114644870156</v>
+        <v>0.9970417388636753</v>
       </c>
       <c r="F24">
-        <v>1.053134052264962</v>
+        <v>1.024360823555391</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039319917517084</v>
+        <v>1.044504943055096</v>
       </c>
       <c r="J24">
-        <v>1.033136727981451</v>
+        <v>1.015910326292383</v>
       </c>
       <c r="K24">
-        <v>1.053171283850183</v>
+        <v>1.044148182235703</v>
       </c>
       <c r="L24">
-        <v>1.03051600891917</v>
+        <v>1.011121004813176</v>
       </c>
       <c r="M24">
-        <v>1.056445390836133</v>
+        <v>1.037973227992796</v>
       </c>
       <c r="N24">
-        <v>1.034603900637624</v>
+        <v>1.017353035482261</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028405093692672</v>
+        <v>0.9955733633077453</v>
       </c>
       <c r="D25">
-        <v>1.051045182893244</v>
+        <v>1.036451844111859</v>
       </c>
       <c r="E25">
-        <v>1.028399766321321</v>
+        <v>1.003035945001203</v>
       </c>
       <c r="F25">
-        <v>1.054639257747924</v>
+        <v>1.031410261662102</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039682521181665</v>
+        <v>1.046772083719213</v>
       </c>
       <c r="J25">
-        <v>1.034042789971398</v>
+        <v>1.020250625336396</v>
       </c>
       <c r="K25">
-        <v>1.054050559253962</v>
+        <v>1.048509469256329</v>
       </c>
       <c r="L25">
-        <v>1.031475735506696</v>
+        <v>1.015587313941027</v>
       </c>
       <c r="M25">
-        <v>1.057633734285827</v>
+        <v>1.043539784452649</v>
       </c>
       <c r="N25">
-        <v>1.035511249339523</v>
+        <v>1.021699498248757</v>
       </c>
     </row>
   </sheetData>
